--- a/test_results/fastText_tests_results.xlsx
+++ b/test_results/fastText_tests_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,80 +436,85 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Unnamed: 0.1</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>test_method</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Mean_sent_embd: sw=0, lm=0</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Mean_sent_embd: sw=1, lm=0</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Mean_sent_embd: sw=0, lm=1</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Mean_sent_embd: sw=1, lm=1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Weighted_sent_embd: sw=0, lm=0</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Weighted_sent_embd: sw=1, lm=0</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Weighted_sent_embd: sw=0, lm=1</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Weighted_sent_embd: sw=1, lm=1</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Weighted_data_from q=1, a=0, sw=1, lm=1</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Weighted_data_from q=0, a=1, sw=1, lm=1</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Weighted_data_from q=1, a=1, sw=1, lm=1</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Weighted_by_tfidf (q included)</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Weighted_by_tfidf (disjunctive)</t>
         </is>
@@ -525,72 +530,75 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>cross_match</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0.379, 0.313</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.414, 0.343</t>
+          <t>0.379, 0.141</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.434, 0.326</t>
+          <t>0.414, 0.143</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.462, 0.374</t>
+          <t>0.434, 0.128</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.393, 0.288 : 0.05</t>
+          <t>0.462, 0.137</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.426, 0.319 : 0.13</t>
+          <t>0.393, 0.121 : 0.03</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.434, 0.326 : 0.35</t>
+          <t>0.426, 0.131 : 0.27</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.471, 0.372 : 0.23</t>
+          <t>0.434, 0.123 : 0.27</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.472, 0.365 : 0.19</t>
+          <t>0.472, 0.128 : 0.19</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.473, 0.365 : 0.47</t>
+          <t>0.472, 0.115 : 0.17</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.471, 0.372 : 0.23</t>
+          <t>0.472, 0.126 : 0.31</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
+          <t>0.472, 0.128 : 0.19</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
           <t>0.585, 0.117 : 0.49</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>0.565, 0.114 : 0.49</t>
         </is>
@@ -606,72 +614,75 @@
       <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>mean_match</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>0.646, 0.131</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>0.655, 0.133</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>0.68, 0.121</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>0.669, 0.132</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>0.651, 0.119 : 0.03</t>
-        </is>
-      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.659, 0.132 : 0.27</t>
+          <t>0.651, 0.126 : 0.05</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.698, 0.121 : 0.03</t>
+          <t>0.659, 0.136 : 0.13</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
+          <t>0.698, 0.122 : 0.03</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
           <t>0.697, 0.131 : 0.03</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0.701, 0.119 : 0.05</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.687, 0.142 : 0.03</t>
+          <t>0.699, 0.122 : 0.05</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
+          <t>0.688, 0.14 : 0.03</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
           <t>0.697, 0.131 : 0.03</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>Not tested</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>Not tested</t>
         </is>
@@ -687,72 +698,75 @@
       <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>mean_match_disj</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>0.41, 0.128, 0.065</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>0.425, 0.148, 0.061</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>0.449, 0.143, 0.07</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>0.464, 0.147, 0.066</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0.415, 0.121, 0.072 : 0.072 : 0.11</t>
-        </is>
-      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.437, 0.136, 0.056  : 0.07</t>
+          <t>0.415, 0.121, 0.075 : 0.11</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.462, 0.131, 0.057 : 0.11</t>
+          <t>0.437, 0.135, 0.057 : 0.07</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.481, 0.135, 0.065 : 0.41</t>
+          <t>0.462, 0.132, 0.056 : 0.11</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.481, 0.138, 0.075 : 0.05</t>
+          <t>0.481, 0.135, 0.065 : 0.39</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0.48, 0.145, 0.065 : 0.05</t>
+          <t>0.481, 0.138, 0.076 : 0.05</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.481, 0.135, 0.065 : 0.41</t>
+          <t>0.482, 0.14, 0.067 : 0.05</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
+          <t>0.481, 0.135, 0.065 : 0.39</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
           <t>0.51, 0.135, 0.063 : 0.05</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>0.506, 0.132, 0.066 : 0.05</t>
         </is>
